--- a/data/input/Liquidaciones (readable)/BQ_Sales Report-8F-BY SEA-OERU4111845.xlsx
+++ b/data/input/Liquidaciones (readable)/BQ_Sales Report-8F-BY SEA-OERU4111845.xlsx
@@ -1,23 +1,84 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10311"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andreaperalta/Library/Mobile Documents/com~apple~CloudDocs/TEMP. 2023-2024/1.Asistencia comercial/3.Liquidaciones/1.Beijing Qiao/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97A9071F-929D-9248-AF31-023EE6517B34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0">Sheet1!$B$3:$I$49</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$3:$I$49</definedName>
   </definedNames>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>unicore</author>
+  </authors>
+  <commentList>
+    <comment ref="H6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>unicore:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color rgb="FF000000"/>
+            <rFont val="Times New Roman Regular"/>
+          </rPr>
+          <t>When the salers started selling, they found that there was some rot in each box.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="50">
   <si>
     <t>2023-2024 JUMBOFRUIT SALES REPORT</t>
   </si>
@@ -167,20 +228,59 @@
   </si>
   <si>
     <t>Total</t>
-  </si>
-  <si>
-    <t/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yy/m/d"/>
-    <numFmt numFmtId="165" formatCode="yyyy/m/d"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="165" formatCode="yyyy/m/d;@"/>
+    <numFmt numFmtId="166" formatCode="yy/m/d;@"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="11">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -190,43 +290,21 @@
     </font>
     <font>
       <b/>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman Regular"/>
     </font>
   </fonts>
   <fills count="4">
@@ -238,16 +316,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFb6c7ea"/>
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFffff00"/>
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -257,163 +337,358 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color rgb="FF000000"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color rgb="FF000000"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF000000"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="165" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="6" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="6" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="6" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+  <cellXfs count="25">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+  <cellStyles count="3">
+    <cellStyle name="Moneda" xfId="1" builtinId="4"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 4" xfId="2" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>724535</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>127635</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>27940</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>727075</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2" descr="公司logo">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11956415" y="127635"/>
+          <a:ext cx="1277620" cy="599440"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>724535</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>127635</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>27940</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>727075</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3" descr="公司logo">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11956415" y="127635"/>
+          <a:ext cx="1277620" cy="599440"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>43815</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>321310</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>300990</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="文本框 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13263245" y="10038080"/>
+          <a:ext cx="3903980" cy="2543175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman Regular" panose="02020603050405020304" charset="0"/>
+              <a:cs typeface="Times New Roman Regular" panose="02020603050405020304" charset="0"/>
+            </a:rPr>
+            <a:t>After the sale, the customer found a lot of </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman Regular" panose="02020603050405020304" charset="0"/>
+              <a:cs typeface="Times New Roman Regular" panose="02020603050405020304" charset="0"/>
+            </a:rPr>
+            <a:t>decay</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman Regular" panose="02020603050405020304" charset="0"/>
+              <a:cs typeface="Times New Roman Regular" panose="02020603050405020304" charset="0"/>
+            </a:rPr>
+            <a:t> and asked for </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman Regular" panose="02020603050405020304" charset="0"/>
+              <a:cs typeface="Times New Roman Regular" panose="02020603050405020304" charset="0"/>
+            </a:rPr>
+            <a:t>discount. Later, in order to prevent serious damage to the fruits, we changed our strategy and started selling the entire pallet.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:latin typeface="Times New Roman Regular" panose="02020603050405020304" charset="0"/>
+            <a:cs typeface="Times New Roman Regular" panose="02020603050405020304" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman Regular" panose="02020603050405020304" charset="0"/>
+              <a:cs typeface="Times New Roman Regular" panose="02020603050405020304" charset="0"/>
+            </a:rPr>
+            <a:t>*We will no longer ship fruits for the end of next year to the north.</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="WPS">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -440,82 +715,82 @@
         <a:srgbClr val="E54C5E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0026E5"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="7E1FAD"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -527,158 +802,131 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="35000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:satMod val="350000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="51000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="80000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="94000"/>
-                <a:satMod val="135000"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="9500"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
-            </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="40000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="20000"/>
-                <a:satMod val="255000"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
@@ -689,113 +937,114 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:J56"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J50"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" zoomScaleNormal="53" workbookViewId="0">
+      <selection activeCell="G54" sqref="G54"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.6640625" defaultRowHeight="30" customHeight="1"/>
   <cols>
-    <col min="1" max="1" style="32" width="15.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="33" width="33.71928571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="34" width="10.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="34" width="14.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="34" width="27.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="34" width="30.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="33" width="21.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="33" width="16.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="35" width="29.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="36" width="31.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="15.5" style="3" customWidth="1"/>
+    <col min="2" max="2" width="33.6640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="10.1640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="14.5" style="2" customWidth="1"/>
+    <col min="5" max="5" width="27.6640625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="30.5" style="2" customWidth="1"/>
+    <col min="7" max="7" width="21.33203125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="16.83203125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="29.83203125" style="4" customWidth="1"/>
+    <col min="10" max="10" width="31.83203125" style="2" customWidth="1"/>
+    <col min="11" max="16380" width="11.6640625" style="2" customWidth="1"/>
+    <col min="16381" max="16384" width="11.6640625" style="2"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="60">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:10" s="1" customFormat="1" ht="60" customHeight="1">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="39">
-      <c r="A2" s="1" t="s">
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="23"/>
+    </row>
+    <row r="2" spans="1:10" s="1" customFormat="1" ht="39" customHeight="1">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3" t="s">
+      <c r="C2" s="23"/>
+      <c r="D2" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3" t="s">
+      <c r="E2" s="23"/>
+      <c r="F2" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2" t="s">
+      <c r="G2" s="23"/>
+      <c r="H2" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="4"/>
-      <c r="J2" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="22">
-      <c r="A3" s="5" t="s">
+      <c r="I2" s="24"/>
+      <c r="J2" s="6"/>
+    </row>
+    <row r="3" spans="1:10" ht="22" customHeight="1">
+      <c r="A3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="I3" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="J3" s="8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18">
+    <row r="4" spans="1:10" ht="18" customHeight="1">
       <c r="A4" s="9">
         <v>45320</v>
       </c>
       <c r="B4" s="10">
         <v>1513403</v>
       </c>
-      <c r="C4" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="11" t="s">
+      <c r="C4" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="10" t="s">
         <v>19</v>
       </c>
       <c r="G4" s="10">
@@ -804,28 +1053,29 @@
       <c r="H4" s="10">
         <v>155</v>
       </c>
-      <c r="I4" s="13">
+      <c r="I4" s="19">
         <f>H4*G4</f>
+        <v>21545</v>
       </c>
       <c r="J4" s="10"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18">
+    <row r="5" spans="1:10" ht="18" customHeight="1">
       <c r="A5" s="9">
         <v>45320</v>
       </c>
       <c r="B5" s="10">
         <v>1513404</v>
       </c>
-      <c r="C5" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="11" t="s">
+      <c r="C5" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F5" s="10" t="s">
         <v>20</v>
       </c>
       <c r="G5" s="10">
@@ -834,28 +1084,29 @@
       <c r="H5" s="10">
         <v>170</v>
       </c>
-      <c r="I5" s="13">
-        <f>H5*G5</f>
+      <c r="I5" s="19">
+        <f t="shared" ref="I5:I40" si="0">H5*G5</f>
+        <v>25500</v>
       </c>
       <c r="J5" s="10"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18">
+    <row r="6" spans="1:10" ht="18" customHeight="1">
       <c r="A6" s="9">
         <v>45320</v>
       </c>
       <c r="B6" s="10">
         <v>1512053</v>
       </c>
-      <c r="C6" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="11" t="s">
+      <c r="C6" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="11" t="s">
+      <c r="E6" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="10" t="s">
         <v>23</v>
       </c>
       <c r="G6" s="10">
@@ -864,88 +1115,93 @@
       <c r="H6" s="10">
         <v>180</v>
       </c>
-      <c r="I6" s="13">
-        <f>H6*G6</f>
+      <c r="I6" s="19">
+        <f t="shared" si="0"/>
+        <v>75600</v>
       </c>
       <c r="J6" s="10"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18">
+    <row r="7" spans="1:10" ht="18" customHeight="1">
       <c r="A7" s="9">
         <v>45320</v>
       </c>
       <c r="B7" s="10">
         <v>1512124</v>
       </c>
-      <c r="C7" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="11" t="s">
+      <c r="C7" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" s="11" t="s">
+      <c r="E7" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="10" t="s">
         <v>23</v>
       </c>
       <c r="G7" s="10">
         <f>237+160+23</f>
+        <v>420</v>
       </c>
       <c r="H7" s="10">
         <v>180</v>
       </c>
-      <c r="I7" s="13">
-        <f>H7*G7</f>
+      <c r="I7" s="19">
+        <f t="shared" si="0"/>
+        <v>75600</v>
       </c>
       <c r="J7" s="10"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18">
+    <row r="8" spans="1:10" ht="18" customHeight="1">
       <c r="A8" s="9">
         <v>45320</v>
       </c>
       <c r="B8" s="10">
         <v>1512224</v>
       </c>
-      <c r="C8" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="11" t="s">
+      <c r="C8" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" s="11" t="s">
+      <c r="E8" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="10" t="s">
         <v>23</v>
       </c>
       <c r="G8" s="10">
         <f>176+104+140</f>
+        <v>420</v>
       </c>
       <c r="H8" s="10">
         <v>180</v>
       </c>
-      <c r="I8" s="13">
-        <f>H8*G8</f>
+      <c r="I8" s="19">
+        <f t="shared" si="0"/>
+        <v>75600</v>
       </c>
       <c r="J8" s="10"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18">
+    <row r="9" spans="1:10" ht="18" customHeight="1">
       <c r="A9" s="9">
         <v>45320</v>
       </c>
       <c r="B9" s="10">
         <v>1513398</v>
       </c>
-      <c r="C9" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="11" t="s">
+      <c r="C9" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="F9" s="11" t="s">
+      <c r="E9" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="10" t="s">
         <v>24</v>
       </c>
       <c r="G9" s="10">
@@ -954,28 +1210,29 @@
       <c r="H9" s="10">
         <v>130</v>
       </c>
-      <c r="I9" s="13">
-        <f>H9*G9</f>
+      <c r="I9" s="19">
+        <f t="shared" si="0"/>
+        <v>54600</v>
       </c>
       <c r="J9" s="10"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18">
+    <row r="10" spans="1:10" ht="18" customHeight="1">
       <c r="A10" s="9">
         <v>45321</v>
       </c>
       <c r="B10" s="10">
         <v>1513399</v>
       </c>
-      <c r="C10" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="11" t="s">
+      <c r="C10" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="F10" s="11" t="s">
+      <c r="E10" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="10" t="s">
         <v>25</v>
       </c>
       <c r="G10" s="10">
@@ -984,28 +1241,29 @@
       <c r="H10" s="10">
         <v>140</v>
       </c>
-      <c r="I10" s="13">
-        <f>H10*G10</f>
+      <c r="I10" s="19">
+        <f t="shared" si="0"/>
+        <v>58800</v>
       </c>
       <c r="J10" s="10"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18">
+    <row r="11" spans="1:10" ht="18" customHeight="1">
       <c r="A11" s="9">
         <v>45321</v>
       </c>
       <c r="B11" s="10">
         <v>1513401</v>
       </c>
-      <c r="C11" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" s="11" t="s">
+      <c r="C11" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="E11" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="F11" s="11" t="s">
+      <c r="E11" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" s="10" t="s">
         <v>25</v>
       </c>
       <c r="G11" s="10">
@@ -1014,28 +1272,29 @@
       <c r="H11" s="10">
         <v>150</v>
       </c>
-      <c r="I11" s="13">
-        <f>H11*G11</f>
+      <c r="I11" s="19">
+        <f t="shared" si="0"/>
+        <v>63000</v>
       </c>
       <c r="J11" s="10"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18">
+    <row r="12" spans="1:10" ht="18" customHeight="1">
       <c r="A12" s="9">
         <v>45321</v>
       </c>
       <c r="B12" s="10">
         <v>1513396</v>
       </c>
-      <c r="C12" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" s="11" t="s">
+      <c r="C12" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="E12" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="F12" s="11" t="s">
+      <c r="E12" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" s="10" t="s">
         <v>25</v>
       </c>
       <c r="G12" s="10">
@@ -1044,28 +1303,29 @@
       <c r="H12" s="10">
         <v>140</v>
       </c>
-      <c r="I12" s="13">
-        <f>H12*G12</f>
+      <c r="I12" s="19">
+        <f t="shared" si="0"/>
+        <v>58800</v>
       </c>
       <c r="J12" s="10"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18">
+    <row r="13" spans="1:10" ht="18" customHeight="1">
       <c r="A13" s="9">
         <v>45321</v>
       </c>
       <c r="B13" s="10">
         <v>1513397</v>
       </c>
-      <c r="C13" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" s="11" t="s">
+      <c r="C13" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="E13" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="F13" s="11" t="s">
+      <c r="E13" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" s="10" t="s">
         <v>26</v>
       </c>
       <c r="G13" s="10">
@@ -1074,58 +1334,61 @@
       <c r="H13" s="10">
         <v>180</v>
       </c>
-      <c r="I13" s="13">
-        <f>H13*G13</f>
+      <c r="I13" s="19">
+        <f t="shared" si="0"/>
+        <v>75600</v>
       </c>
       <c r="J13" s="10"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18">
+    <row r="14" spans="1:10" ht="18" customHeight="1">
       <c r="A14" s="9">
         <v>45321</v>
       </c>
       <c r="B14" s="10">
         <v>1513653</v>
       </c>
-      <c r="C14" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" s="11" t="s">
+      <c r="C14" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="E14" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="F14" s="11" t="s">
+      <c r="E14" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F14" s="10" t="s">
         <v>27</v>
       </c>
       <c r="G14" s="10">
         <f>140+37</f>
+        <v>177</v>
       </c>
       <c r="H14" s="10">
         <v>115</v>
       </c>
-      <c r="I14" s="13">
-        <f>H14*G14</f>
+      <c r="I14" s="19">
+        <f t="shared" si="0"/>
+        <v>20355</v>
       </c>
       <c r="J14" s="10"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18">
+    <row r="15" spans="1:10" ht="18" customHeight="1">
       <c r="A15" s="9">
         <v>45321</v>
       </c>
       <c r="B15" s="10">
         <v>1513653</v>
       </c>
-      <c r="C15" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D15" s="11" t="s">
+      <c r="C15" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="E15" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="F15" s="11" t="s">
+      <c r="E15" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15" s="10" t="s">
         <v>23</v>
       </c>
       <c r="G15" s="10">
@@ -1134,28 +1397,29 @@
       <c r="H15" s="10">
         <v>170</v>
       </c>
-      <c r="I15" s="13">
-        <f>H15*G15</f>
+      <c r="I15" s="19">
+        <f t="shared" si="0"/>
+        <v>23800</v>
       </c>
       <c r="J15" s="10"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18">
+    <row r="16" spans="1:10" ht="18" customHeight="1">
       <c r="A16" s="9">
         <v>45321</v>
       </c>
       <c r="B16" s="10">
         <v>1513653</v>
       </c>
-      <c r="C16" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D16" s="11" t="s">
+      <c r="C16" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="E16" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="F16" s="11" t="s">
+      <c r="E16" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F16" s="10" t="s">
         <v>28</v>
       </c>
       <c r="G16" s="10">
@@ -1164,28 +1428,29 @@
       <c r="H16" s="10">
         <v>110</v>
       </c>
-      <c r="I16" s="13">
-        <f>H16*G16</f>
+      <c r="I16" s="19">
+        <f t="shared" si="0"/>
+        <v>5610</v>
       </c>
       <c r="J16" s="10"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18">
+    <row r="17" spans="1:10" ht="18" customHeight="1">
       <c r="A17" s="9">
         <v>45321</v>
       </c>
       <c r="B17" s="10">
         <v>1513653</v>
       </c>
-      <c r="C17" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D17" s="11" t="s">
+      <c r="C17" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="E17" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="F17" s="11" t="s">
+      <c r="E17" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F17" s="10" t="s">
         <v>28</v>
       </c>
       <c r="G17" s="10">
@@ -1194,28 +1459,29 @@
       <c r="H17" s="10">
         <v>110</v>
       </c>
-      <c r="I17" s="13">
-        <f>H17*G17</f>
+      <c r="I17" s="19">
+        <f t="shared" si="0"/>
+        <v>1760</v>
       </c>
       <c r="J17" s="10"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18">
+    <row r="18" spans="1:10" ht="18" customHeight="1">
       <c r="A18" s="9">
         <v>45321</v>
       </c>
       <c r="B18" s="10">
         <v>1513653</v>
       </c>
-      <c r="C18" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D18" s="11" t="s">
+      <c r="C18" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="E18" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="F18" s="11" t="s">
+      <c r="E18" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F18" s="10" t="s">
         <v>30</v>
       </c>
       <c r="G18" s="10">
@@ -1224,28 +1490,29 @@
       <c r="H18" s="10">
         <v>120</v>
       </c>
-      <c r="I18" s="13">
+      <c r="I18" s="19">
         <f>H18*G18</f>
+        <v>4320</v>
       </c>
       <c r="J18" s="10"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18">
+    <row r="19" spans="1:10" ht="18" customHeight="1">
       <c r="A19" s="9">
         <v>45321</v>
       </c>
       <c r="B19" s="10">
         <v>1513660</v>
       </c>
-      <c r="C19" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D19" s="11" t="s">
+      <c r="C19" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="E19" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="F19" s="11" t="s">
+      <c r="E19" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F19" s="10" t="s">
         <v>26</v>
       </c>
       <c r="G19" s="10">
@@ -1254,28 +1521,29 @@
       <c r="H19" s="10">
         <v>170</v>
       </c>
-      <c r="I19" s="13">
-        <f>H19*G19</f>
+      <c r="I19" s="19">
+        <f t="shared" si="0"/>
+        <v>37910</v>
       </c>
       <c r="J19" s="10"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18">
+    <row r="20" spans="1:10" ht="18" customHeight="1">
       <c r="A20" s="9">
         <v>45321</v>
       </c>
       <c r="B20" s="10">
         <v>1513660</v>
       </c>
-      <c r="C20" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D20" s="11" t="s">
+      <c r="C20" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="E20" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="F20" s="11" t="s">
+      <c r="E20" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F20" s="10" t="s">
         <v>31</v>
       </c>
       <c r="G20" s="10">
@@ -1284,28 +1552,29 @@
       <c r="H20" s="10">
         <v>175</v>
       </c>
-      <c r="I20" s="13">
-        <f>H20*G20</f>
+      <c r="I20" s="19">
+        <f t="shared" si="0"/>
+        <v>34475</v>
       </c>
       <c r="J20" s="10"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18">
+    <row r="21" spans="1:10" ht="18" customHeight="1">
       <c r="A21" s="9">
         <v>45322</v>
       </c>
       <c r="B21" s="10">
         <v>1513661</v>
       </c>
-      <c r="C21" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D21" s="11" t="s">
+      <c r="C21" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="E21" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="F21" s="11" t="s">
+      <c r="E21" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F21" s="10" t="s">
         <v>31</v>
       </c>
       <c r="G21" s="10">
@@ -1314,28 +1583,29 @@
       <c r="H21" s="10">
         <v>160</v>
       </c>
-      <c r="I21" s="13">
-        <f>H21*G21</f>
+      <c r="I21" s="19">
+        <f t="shared" si="0"/>
+        <v>8640</v>
       </c>
       <c r="J21" s="10"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18">
+    <row r="22" spans="1:10" ht="18" customHeight="1">
       <c r="A22" s="9">
         <v>45322</v>
       </c>
       <c r="B22" s="10">
         <v>1513661</v>
       </c>
-      <c r="C22" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D22" s="11" t="s">
+      <c r="C22" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="E22" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="F22" s="11" t="s">
+      <c r="E22" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F22" s="10" t="s">
         <v>26</v>
       </c>
       <c r="G22" s="10">
@@ -1344,28 +1614,29 @@
       <c r="H22" s="10">
         <v>160</v>
       </c>
-      <c r="I22" s="13">
-        <f>H22*G22</f>
+      <c r="I22" s="19">
+        <f t="shared" si="0"/>
+        <v>1600</v>
       </c>
       <c r="J22" s="10"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="20.25">
+    <row r="23" spans="1:10" ht="18" customHeight="1">
       <c r="A23" s="9">
         <v>45322</v>
       </c>
       <c r="B23" s="10">
         <v>1513661</v>
       </c>
-      <c r="C23" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D23" s="11" t="s">
+      <c r="C23" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="E23" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="F23" s="11" t="s">
+      <c r="E23" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F23" s="10" t="s">
         <v>25</v>
       </c>
       <c r="G23" s="10">
@@ -1374,28 +1645,29 @@
       <c r="H23" s="10">
         <v>160</v>
       </c>
-      <c r="I23" s="13">
-        <f>H23*G23</f>
+      <c r="I23" s="19">
+        <f t="shared" si="0"/>
+        <v>17920</v>
       </c>
       <c r="J23" s="10"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="20.25">
+    <row r="24" spans="1:10" ht="18" customHeight="1">
       <c r="A24" s="9">
         <v>45322</v>
       </c>
       <c r="B24" s="10">
         <v>1513661</v>
       </c>
-      <c r="C24" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D24" s="11" t="s">
+      <c r="C24" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="E24" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="F24" s="11" t="s">
+      <c r="E24" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F24" s="10" t="s">
         <v>32</v>
       </c>
       <c r="G24" s="10">
@@ -1404,28 +1676,29 @@
       <c r="H24" s="10">
         <v>160</v>
       </c>
-      <c r="I24" s="13">
-        <f>H24*G24</f>
+      <c r="I24" s="19">
+        <f t="shared" si="0"/>
+        <v>39040</v>
       </c>
       <c r="J24" s="10"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="20.25">
+    <row r="25" spans="1:10" ht="18" customHeight="1">
       <c r="A25" s="9">
         <v>45322</v>
       </c>
       <c r="B25" s="10">
         <v>1513662</v>
       </c>
-      <c r="C25" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D25" s="11" t="s">
+      <c r="C25" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D25" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="E25" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="F25" s="11" t="s">
+      <c r="E25" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F25" s="10" t="s">
         <v>30</v>
       </c>
       <c r="G25" s="10">
@@ -1434,28 +1707,29 @@
       <c r="H25" s="10">
         <v>120</v>
       </c>
-      <c r="I25" s="13">
-        <f>H25*G25</f>
+      <c r="I25" s="19">
+        <f t="shared" si="0"/>
+        <v>8520</v>
       </c>
       <c r="J25" s="10"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="20.25">
+    <row r="26" spans="1:10" ht="18" customHeight="1">
       <c r="A26" s="9">
         <v>45322</v>
       </c>
       <c r="B26" s="10">
         <v>1513662</v>
       </c>
-      <c r="C26" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D26" s="11" t="s">
+      <c r="C26" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D26" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="E26" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="F26" s="11" t="s">
+      <c r="E26" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F26" s="10" t="s">
         <v>24</v>
       </c>
       <c r="G26" s="10">
@@ -1464,28 +1738,29 @@
       <c r="H26" s="10">
         <v>140</v>
       </c>
-      <c r="I26" s="13">
-        <f>H26*G26</f>
+      <c r="I26" s="19">
+        <f t="shared" si="0"/>
+        <v>31360</v>
       </c>
       <c r="J26" s="10"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="20.25">
+    <row r="27" spans="1:10" ht="18" customHeight="1">
       <c r="A27" s="9">
         <v>45322</v>
       </c>
       <c r="B27" s="10">
         <v>1513662</v>
       </c>
-      <c r="C27" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D27" s="11" t="s">
+      <c r="C27" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D27" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="E27" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="F27" s="11" t="s">
+      <c r="E27" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F27" s="10" t="s">
         <v>32</v>
       </c>
       <c r="G27" s="10">
@@ -1494,28 +1769,29 @@
       <c r="H27" s="10">
         <v>170</v>
       </c>
-      <c r="I27" s="13">
-        <f>H27*G27</f>
+      <c r="I27" s="19">
+        <f t="shared" si="0"/>
+        <v>21250</v>
       </c>
       <c r="J27" s="10"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="20.25">
+    <row r="28" spans="1:10" ht="18" customHeight="1">
       <c r="A28" s="9">
         <v>45322</v>
       </c>
       <c r="B28" s="10">
         <v>1513663</v>
       </c>
-      <c r="C28" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D28" s="11" t="s">
+      <c r="C28" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D28" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="E28" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="F28" s="11" t="s">
+      <c r="E28" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F28" s="10" t="s">
         <v>27</v>
       </c>
       <c r="G28" s="10">
@@ -1524,28 +1800,29 @@
       <c r="H28" s="10">
         <v>110</v>
       </c>
-      <c r="I28" s="13">
-        <f>H28*G28</f>
+      <c r="I28" s="19">
+        <f t="shared" si="0"/>
+        <v>41690</v>
       </c>
       <c r="J28" s="10"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="20.25">
+    <row r="29" spans="1:10" ht="18" customHeight="1">
       <c r="A29" s="9">
         <v>45322</v>
       </c>
       <c r="B29" s="10">
         <v>1513663</v>
       </c>
-      <c r="C29" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D29" s="11" t="s">
+      <c r="C29" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D29" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="E29" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="F29" s="11" t="s">
+      <c r="E29" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F29" s="10" t="s">
         <v>28</v>
       </c>
       <c r="G29" s="10">
@@ -1554,28 +1831,29 @@
       <c r="H29" s="10">
         <v>110</v>
       </c>
-      <c r="I29" s="13">
-        <f>H29*G29</f>
+      <c r="I29" s="19">
+        <f t="shared" si="0"/>
+        <v>4510</v>
       </c>
       <c r="J29" s="10"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="20.25">
+    <row r="30" spans="1:10" ht="18" customHeight="1">
       <c r="A30" s="9">
         <v>45322</v>
       </c>
       <c r="B30" s="10">
         <v>1513665</v>
       </c>
-      <c r="C30" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D30" s="11" t="s">
+      <c r="C30" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D30" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="E30" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="F30" s="11" t="s">
+      <c r="E30" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F30" s="10" t="s">
         <v>28</v>
       </c>
       <c r="G30" s="10">
@@ -1584,28 +1862,29 @@
       <c r="H30" s="10">
         <v>140</v>
       </c>
-      <c r="I30" s="13">
-        <f>H30*G30</f>
+      <c r="I30" s="19">
+        <f t="shared" si="0"/>
+        <v>21840</v>
       </c>
       <c r="J30" s="10"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="20.25">
+    <row r="31" spans="1:10" ht="18" customHeight="1">
       <c r="A31" s="9">
         <v>45322</v>
       </c>
       <c r="B31" s="10">
         <v>1513665</v>
       </c>
-      <c r="C31" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D31" s="11" t="s">
+      <c r="C31" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D31" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="E31" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="F31" s="11" t="s">
+      <c r="E31" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F31" s="10" t="s">
         <v>25</v>
       </c>
       <c r="G31" s="10">
@@ -1614,28 +1893,29 @@
       <c r="H31" s="10">
         <v>140</v>
       </c>
-      <c r="I31" s="13">
-        <f>H31*G31</f>
+      <c r="I31" s="19">
+        <f t="shared" si="0"/>
+        <v>1680</v>
       </c>
       <c r="J31" s="10"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="20.25">
+    <row r="32" spans="1:10" ht="18" customHeight="1">
       <c r="A32" s="9">
         <v>45322</v>
       </c>
       <c r="B32" s="10">
         <v>1513665</v>
       </c>
-      <c r="C32" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D32" s="11" t="s">
+      <c r="C32" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D32" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="E32" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="F32" s="11" t="s">
+      <c r="E32" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F32" s="10" t="s">
         <v>26</v>
       </c>
       <c r="G32" s="10">
@@ -1644,28 +1924,29 @@
       <c r="H32" s="10">
         <v>140</v>
       </c>
-      <c r="I32" s="13">
-        <f>H32*G32</f>
+      <c r="I32" s="19">
+        <f t="shared" si="0"/>
+        <v>19600</v>
       </c>
       <c r="J32" s="10"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="20.25">
+    <row r="33" spans="1:10" ht="18" customHeight="1">
       <c r="A33" s="9">
         <v>45322</v>
       </c>
       <c r="B33" s="10">
         <v>1513665</v>
       </c>
-      <c r="C33" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D33" s="11" t="s">
+      <c r="C33" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D33" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="E33" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="F33" s="11" t="s">
+      <c r="E33" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F33" s="10" t="s">
         <v>31</v>
       </c>
       <c r="G33" s="10">
@@ -1674,28 +1955,29 @@
       <c r="H33" s="10">
         <v>140</v>
       </c>
-      <c r="I33" s="13">
-        <f>H33*G33</f>
+      <c r="I33" s="19">
+        <f t="shared" si="0"/>
+        <v>1960</v>
       </c>
       <c r="J33" s="10"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="20.25">
+    <row r="34" spans="1:10" ht="18" customHeight="1">
       <c r="A34" s="9">
         <v>45322</v>
       </c>
       <c r="B34" s="10">
         <v>1513665</v>
       </c>
-      <c r="C34" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D34" s="11" t="s">
+      <c r="C34" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D34" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="E34" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="F34" s="11" t="s">
+      <c r="E34" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F34" s="10" t="s">
         <v>23</v>
       </c>
       <c r="G34" s="10">
@@ -1704,28 +1986,29 @@
       <c r="H34" s="10">
         <v>140</v>
       </c>
-      <c r="I34" s="13">
-        <f>H34*G34</f>
+      <c r="I34" s="19">
+        <f t="shared" si="0"/>
+        <v>1400</v>
       </c>
       <c r="J34" s="10"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="20.25">
+    <row r="35" spans="1:10" ht="18" customHeight="1">
       <c r="A35" s="9">
         <v>45322</v>
       </c>
       <c r="B35" s="10">
         <v>1513665</v>
       </c>
-      <c r="C35" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D35" s="11" t="s">
+      <c r="C35" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D35" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="E35" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="F35" s="11" t="s">
+      <c r="E35" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F35" s="10" t="s">
         <v>23</v>
       </c>
       <c r="G35" s="10">
@@ -1734,28 +2017,29 @@
       <c r="H35" s="10">
         <v>140</v>
       </c>
-      <c r="I35" s="13">
-        <f>H35*G35</f>
+      <c r="I35" s="19">
+        <f t="shared" si="0"/>
+        <v>6300</v>
       </c>
       <c r="J35" s="10"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="20.25">
+    <row r="36" spans="1:10" ht="18" customHeight="1">
       <c r="A36" s="9">
         <v>45322</v>
       </c>
       <c r="B36" s="10">
         <v>1513665</v>
       </c>
-      <c r="C36" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D36" s="11" t="s">
+      <c r="C36" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D36" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="E36" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="F36" s="11" t="s">
+      <c r="E36" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F36" s="10" t="s">
         <v>26</v>
       </c>
       <c r="G36" s="10">
@@ -1764,58 +2048,61 @@
       <c r="H36" s="10">
         <v>140</v>
       </c>
-      <c r="I36" s="13">
-        <f>H36*G36</f>
+      <c r="I36" s="19">
+        <f t="shared" si="0"/>
+        <v>6020</v>
       </c>
       <c r="J36" s="10"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="20.25">
+    <row r="37" spans="1:10" ht="18" customHeight="1">
       <c r="A37" s="9">
         <v>45320</v>
       </c>
       <c r="B37" s="10">
         <v>1513768</v>
       </c>
-      <c r="C37" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D37" s="11" t="s">
+      <c r="C37" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D37" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="E37" s="11" t="s">
+      <c r="E37" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="F37" s="11" t="s">
+      <c r="F37" s="10" t="s">
         <v>34</v>
       </c>
       <c r="G37" s="10">
         <f>39+27</f>
+        <v>66</v>
       </c>
       <c r="H37" s="10">
         <v>380</v>
       </c>
-      <c r="I37" s="13">
-        <f>H37*G37</f>
+      <c r="I37" s="19">
+        <f t="shared" si="0"/>
+        <v>25080</v>
       </c>
       <c r="J37" s="10"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="20.25">
+    <row r="38" spans="1:10" ht="18" customHeight="1">
       <c r="A38" s="9">
         <v>45320</v>
       </c>
       <c r="B38" s="10">
         <v>1513400</v>
       </c>
-      <c r="C38" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D38" s="11" t="s">
+      <c r="C38" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D38" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="E38" s="11" t="s">
+      <c r="E38" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="F38" s="11" t="s">
+      <c r="F38" s="10" t="s">
         <v>34</v>
       </c>
       <c r="G38" s="10">
@@ -1824,28 +2111,29 @@
       <c r="H38" s="10">
         <v>370</v>
       </c>
-      <c r="I38" s="13">
+      <c r="I38" s="19">
         <f>H38*G38</f>
+        <v>41440</v>
       </c>
       <c r="J38" s="10"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="20.25">
+    <row r="39" spans="1:10" ht="18" customHeight="1">
       <c r="A39" s="9">
         <v>45320</v>
       </c>
       <c r="B39" s="10">
         <v>1513380</v>
       </c>
-      <c r="C39" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D39" s="11" t="s">
+      <c r="C39" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D39" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="E39" s="11" t="s">
+      <c r="E39" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="F39" s="11" t="s">
+      <c r="F39" s="10" t="s">
         <v>34</v>
       </c>
       <c r="G39" s="10">
@@ -1854,28 +2142,29 @@
       <c r="H39" s="10">
         <v>360</v>
       </c>
-      <c r="I39" s="13">
-        <f>H39*G39</f>
+      <c r="I39" s="19">
+        <f t="shared" si="0"/>
+        <v>40320</v>
       </c>
       <c r="J39" s="10"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="21">
+    <row r="40" spans="1:10" ht="18" customHeight="1">
       <c r="A40" s="9">
         <v>45320</v>
       </c>
       <c r="B40" s="10">
         <v>1513390</v>
       </c>
-      <c r="C40" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D40" s="11" t="s">
+      <c r="C40" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D40" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="E40" s="11" t="s">
+      <c r="E40" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="F40" s="11" t="s">
+      <c r="F40" s="10" t="s">
         <v>34</v>
       </c>
       <c r="G40" s="10">
@@ -1884,258 +2173,193 @@
       <c r="H40" s="10">
         <v>360</v>
       </c>
-      <c r="I40" s="13">
-        <f>H40*G40</f>
+      <c r="I40" s="19">
+        <f t="shared" si="0"/>
+        <v>40320</v>
       </c>
       <c r="J40" s="10"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="20.25">
-      <c r="A41" s="14"/>
-      <c r="B41" s="15"/>
-      <c r="C41" s="16"/>
-      <c r="D41" s="16"/>
-      <c r="E41" s="11"/>
-      <c r="F41" s="11"/>
+    <row r="41" spans="1:10" ht="18" customHeight="1">
+      <c r="A41" s="11"/>
+      <c r="B41" s="12"/>
+      <c r="C41" s="12"/>
+      <c r="D41" s="12"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="10"/>
       <c r="G41" s="10"/>
       <c r="H41" s="10"/>
-      <c r="I41" s="13"/>
-      <c r="J41" s="15"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="20.25">
-      <c r="A42" s="14"/>
-      <c r="B42" s="15"/>
-      <c r="C42" s="16"/>
-      <c r="D42" s="16"/>
-      <c r="E42" s="17" t="s">
+      <c r="I41" s="19"/>
+      <c r="J41" s="12"/>
+    </row>
+    <row r="42" spans="1:10" ht="18" customHeight="1">
+      <c r="A42" s="11"/>
+      <c r="B42" s="12"/>
+      <c r="C42" s="12"/>
+      <c r="D42" s="12"/>
+      <c r="E42" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="F42" s="11"/>
+      <c r="F42" s="10"/>
       <c r="G42" s="10">
         <f>SUM(G4:G40)</f>
+        <v>6571</v>
       </c>
       <c r="H42" s="10"/>
-      <c r="I42" s="13">
+      <c r="I42" s="19">
         <f>SUM(I4:I40)</f>
-      </c>
-      <c r="J42" s="15"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="20.25">
-      <c r="A43" s="14"/>
-      <c r="B43" s="15"/>
-      <c r="C43" s="16"/>
-      <c r="D43" s="16"/>
-      <c r="E43" s="17" t="s">
+        <v>1093365</v>
+      </c>
+      <c r="J42" s="12"/>
+    </row>
+    <row r="43" spans="1:10" ht="18" customHeight="1">
+      <c r="A43" s="11"/>
+      <c r="B43" s="12"/>
+      <c r="C43" s="12"/>
+      <c r="D43" s="12"/>
+      <c r="E43" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="F43" s="11" t="s">
+      <c r="F43" s="10" t="s">
         <v>37</v>
       </c>
       <c r="G43" s="10"/>
       <c r="H43" s="10"/>
-      <c r="I43" s="13">
+      <c r="I43" s="19">
         <f>I42*-0.06</f>
-      </c>
-      <c r="J43" s="15"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="20.25">
-      <c r="A44" s="14"/>
-      <c r="B44" s="15"/>
-      <c r="C44" s="16"/>
-      <c r="D44" s="16"/>
-      <c r="E44" s="17" t="s">
+        <v>-65601.899999999994</v>
+      </c>
+      <c r="J43" s="12"/>
+    </row>
+    <row r="44" spans="1:10" ht="18" customHeight="1">
+      <c r="A44" s="11"/>
+      <c r="B44" s="12"/>
+      <c r="C44" s="12"/>
+      <c r="D44" s="12"/>
+      <c r="E44" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="F44" s="11" t="s">
+      <c r="F44" s="10" t="s">
         <v>39</v>
       </c>
       <c r="G44" s="10"/>
       <c r="H44" s="10"/>
-      <c r="I44" s="13">
+      <c r="I44" s="19">
         <v>-8069.45</v>
       </c>
-      <c r="J44" s="15"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="20.25">
-      <c r="A45" s="14"/>
-      <c r="B45" s="15"/>
-      <c r="C45" s="16"/>
-      <c r="D45" s="16"/>
-      <c r="E45" s="17" t="s">
+      <c r="J44" s="12"/>
+    </row>
+    <row r="45" spans="1:10" ht="18" customHeight="1">
+      <c r="A45" s="11"/>
+      <c r="B45" s="12"/>
+      <c r="C45" s="12"/>
+      <c r="D45" s="12"/>
+      <c r="E45" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="F45" s="11" t="s">
+      <c r="F45" s="10" t="s">
         <v>41</v>
       </c>
       <c r="G45" s="10"/>
       <c r="H45" s="10"/>
-      <c r="I45" s="13">
+      <c r="I45" s="19">
         <v>-88622</v>
       </c>
-      <c r="J45" s="15"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="20.25">
-      <c r="A46" s="14"/>
-      <c r="B46" s="15"/>
-      <c r="C46" s="16"/>
-      <c r="D46" s="16"/>
-      <c r="E46" s="17" t="s">
+      <c r="J45" s="12"/>
+    </row>
+    <row r="46" spans="1:10" ht="18" customHeight="1">
+      <c r="A46" s="11"/>
+      <c r="B46" s="12"/>
+      <c r="C46" s="12"/>
+      <c r="D46" s="12"/>
+      <c r="E46" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="F46" s="11" t="s">
+      <c r="F46" s="10" t="s">
         <v>43</v>
       </c>
       <c r="G46" s="10"/>
       <c r="H46" s="10"/>
-      <c r="I46" s="13">
+      <c r="I46" s="19">
         <v>-58364.55</v>
       </c>
-      <c r="J46" s="15"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="20.25">
-      <c r="A47" s="14"/>
-      <c r="B47" s="15"/>
-      <c r="C47" s="16"/>
-      <c r="D47" s="16"/>
-      <c r="E47" s="17" t="s">
+      <c r="J46" s="12"/>
+    </row>
+    <row r="47" spans="1:10" ht="18" customHeight="1">
+      <c r="A47" s="11"/>
+      <c r="B47" s="12"/>
+      <c r="C47" s="12"/>
+      <c r="D47" s="12"/>
+      <c r="E47" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="F47" s="11" t="s">
+      <c r="F47" s="10" t="s">
         <v>45</v>
       </c>
       <c r="G47" s="10"/>
       <c r="H47" s="10"/>
-      <c r="I47" s="13">
+      <c r="I47" s="19">
         <v>-16800</v>
       </c>
-      <c r="J47" s="15"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18">
-      <c r="A48" s="14"/>
-      <c r="B48" s="15"/>
-      <c r="C48" s="16"/>
-      <c r="D48" s="16"/>
-      <c r="E48" s="17" t="s">
+      <c r="J47" s="12"/>
+    </row>
+    <row r="48" spans="1:10" ht="18" customHeight="1">
+      <c r="A48" s="11"/>
+      <c r="B48" s="12"/>
+      <c r="C48" s="12"/>
+      <c r="D48" s="12"/>
+      <c r="E48" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="F48" s="11" t="s">
+      <c r="F48" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="G48" s="18"/>
-      <c r="H48" s="18"/>
-      <c r="I48" s="13">
+      <c r="G48" s="15"/>
+      <c r="H48" s="15"/>
+      <c r="I48" s="19">
         <f>-(3553+600+2000+400+800)</f>
-      </c>
-      <c r="J48" s="15"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18">
-      <c r="A49" s="14"/>
-      <c r="B49" s="15"/>
-      <c r="C49" s="16"/>
-      <c r="D49" s="16"/>
-      <c r="E49" s="19" t="s">
+        <v>-7353</v>
+      </c>
+      <c r="J48" s="12"/>
+    </row>
+    <row r="49" spans="1:10" ht="18" customHeight="1">
+      <c r="A49" s="11"/>
+      <c r="B49" s="12"/>
+      <c r="C49" s="12"/>
+      <c r="D49" s="12"/>
+      <c r="E49" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="F49" s="20" t="s">
+      <c r="F49" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="G49" s="21">
+      <c r="G49" s="17">
         <v>6571</v>
       </c>
-      <c r="H49" s="21"/>
-      <c r="I49" s="22">
+      <c r="H49" s="17"/>
+      <c r="I49" s="20">
         <f>SUM(I42:I48)</f>
-      </c>
-      <c r="J49" s="15"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18">
-      <c r="A50" s="14"/>
-      <c r="B50" s="15"/>
-      <c r="C50" s="16"/>
-      <c r="D50" s="16"/>
-      <c r="E50" s="16"/>
-      <c r="F50" s="16"/>
-      <c r="G50" s="15"/>
-      <c r="H50" s="15"/>
-      <c r="I50" s="23"/>
-      <c r="J50" s="15"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75">
-      <c r="A51" s="24"/>
-      <c r="B51" s="25"/>
-      <c r="C51" s="26"/>
-      <c r="D51" s="26"/>
-      <c r="E51" s="26"/>
-      <c r="F51" s="26"/>
-      <c r="G51" s="25"/>
-      <c r="H51" s="25"/>
-      <c r="I51" s="27"/>
-      <c r="J51" s="28"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="30">
-      <c r="A52" s="24"/>
-      <c r="B52" s="25"/>
-      <c r="C52" s="26"/>
-      <c r="D52" s="26"/>
-      <c r="E52" s="26"/>
-      <c r="F52" s="26"/>
-      <c r="G52" s="25"/>
-      <c r="H52" s="25"/>
-      <c r="I52" s="29" t="s">
-        <v>50</v>
-      </c>
-      <c r="J52" s="28"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="30">
-      <c r="A53" s="24"/>
-      <c r="B53" s="25"/>
-      <c r="C53" s="26"/>
-      <c r="D53" s="26"/>
-      <c r="E53" s="26"/>
-      <c r="F53" s="26"/>
-      <c r="G53" s="25"/>
-      <c r="H53" s="25"/>
-      <c r="I53" s="30"/>
-      <c r="J53" s="28"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="30">
-      <c r="A54" s="24"/>
-      <c r="B54" s="25"/>
-      <c r="C54" s="26"/>
-      <c r="D54" s="26"/>
-      <c r="E54" s="26"/>
-      <c r="F54" s="26"/>
-      <c r="G54" s="25"/>
-      <c r="H54" s="25"/>
-      <c r="I54" s="29" t="s">
-        <v>50</v>
-      </c>
-      <c r="J54" s="30"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="30">
-      <c r="A55" s="24"/>
-      <c r="B55" s="25"/>
-      <c r="C55" s="26"/>
-      <c r="D55" s="26"/>
-      <c r="E55" s="26"/>
-      <c r="F55" s="26"/>
-      <c r="G55" s="25"/>
-      <c r="H55" s="25"/>
-      <c r="I55" s="27"/>
-      <c r="J55" s="31"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="30">
-      <c r="A56" s="24"/>
-      <c r="B56" s="25"/>
-      <c r="C56" s="26"/>
-      <c r="D56" s="26"/>
-      <c r="E56" s="26"/>
-      <c r="F56" s="26"/>
-      <c r="G56" s="25"/>
-      <c r="H56" s="25"/>
-      <c r="I56" s="27"/>
-      <c r="J56" s="31"/>
+        <v>848554.1</v>
+      </c>
+      <c r="J49" s="12"/>
+    </row>
+    <row r="50" spans="1:10" ht="18" customHeight="1">
+      <c r="A50" s="11"/>
+      <c r="B50" s="12"/>
+      <c r="C50" s="12"/>
+      <c r="D50" s="12"/>
+      <c r="E50" s="12"/>
+      <c r="F50" s="12"/>
+      <c r="G50" s="12"/>
+      <c r="H50" s="12"/>
+      <c r="I50" s="21"/>
+      <c r="J50" s="12"/>
     </row>
   </sheetData>
+  <autoFilter ref="B3:I49" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:I49">
+      <sortCondition ref="E3"/>
+    </sortState>
+  </autoFilter>
   <mergeCells count="5">
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="B2:C2"/>
@@ -2143,6 +2367,9 @@
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="H2:I2"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>